--- a/biology/Botanique/Liste_des_espèces_du_genre_Poa/Liste_des_espèces_du_genre_Poa.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Poa/Liste_des_espèces_du_genre_Poa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Poa</t>
+          <t>Liste_des_espèces_du_genre_Poa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste des espèces du genre Poa
-Le genre Poa, l'un des plus importants de la famille des Poaceae, comprend plus de 500 espèces[1].
-Selon la base de données de The Plant List, 2172 espèces de Poa ont été décrites, dont 525 sont des espèces acceptées, 1476 des synonymes et 171 sont en attente d'évaluation[2].
+Le genre Poa, l'un des plus importants de la famille des Poaceae, comprend plus de 500 espèces.
+Selon la base de données de The Plant List, 2172 espèces de Poa ont été décrites, dont 525 sont des espèces acceptées, 1476 des synonymes et 171 sont en attente d'évaluation.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Poa</t>
+          <t>Liste_des_espèces_du_genre_Poa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Sommaire :
 Haut – A
 B
